--- a/Smell_analysis_summary/Design_smells.xlsx
+++ b/Smell_analysis_summary/Design_smells.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C580A2E-6E81-4FC5-B15B-6F14D4E859E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E591E904-FC80-4BF6-B4D0-49D2DAE64CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="201">
   <si>
     <t>Justification</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: id; name</t>
   </si>
   <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation too.</t>
+    <t>categoryDto uses Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation too.</t>
   </si>
   <si>
     <t>ApiResponse</t>
@@ -94,6 +94,9 @@
     <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: message</t>
   </si>
   <si>
+    <t>ApiResponse uses Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation too.</t>
+  </si>
+  <si>
     <t>GetSubscriptionResponse</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: name; days; subscriptionDate; Product; productId; customerName</t>
   </si>
   <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Also the subscription response needs to contain the subscriptionName and product details to display in UI</t>
+    <t>GetSubscriptionResponse has data members with  Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Also the subscription response needs to contain the subscriptionName and product details to display in UI</t>
   </si>
   <si>
     <t>WalletResponse</t>
@@ -112,298 +115,355 @@
     <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: balance</t>
   </si>
   <si>
+    <t>Refactored the smell with combining walletResponse with another type</t>
+  </si>
+  <si>
+    <t>ProductEditResponseDto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: message; product</t>
+  </si>
+  <si>
+    <t>Refactored the smell with removing this type, as it was not used.</t>
+  </si>
+  <si>
+    <t>LoginResponse</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: token; refreshToken; firstname; lastname; email; role; wallet_balance</t>
+  </si>
+  <si>
+    <t>LoginResponse has data member with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Also the login response needs to contain the basic user details like name, role , as we have role based UI changes</t>
+  </si>
+  <si>
+    <t>UserDTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: id; firstname; lastname; email; role</t>
+  </si>
+  <si>
+    <t>UserDTO has data member with  lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: id; firstname; lastname; email; role</t>
+  </si>
+  <si>
+    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. The userDTO also needs to contains the basic user details like name, role etc to handle user details in frontend</t>
+  </si>
+  <si>
+    <t>HomeResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: farms; products</t>
+  </si>
+  <si>
+    <t>HomeResponse has data members with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>JwtAuthenticationResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: token; refreshToken</t>
+  </si>
+  <si>
+    <t>JwtAuthenticationResponse has data members with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>AdminResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: farms; products; orders; users; Sales</t>
+  </si>
+  <si>
+    <t>AdminResponse has data members with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: farms; products; orders; users; Sales</t>
+  </si>
+  <si>
+    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Further the admin response needs combined data of farmers, products, sales etc. to display in admin dashboard.</t>
+  </si>
+  <si>
+    <t>com.example.backend.dto.request</t>
+  </si>
+  <si>
+    <t>SignInRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: email; password</t>
+  </si>
+  <si>
+    <t>SignInRequest has data members with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>ProductSubscribeRequest</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: name; mon; tue; wed; thu; fri; sat; sun; farm_id; product_id</t>
+  </si>
+  <si>
+    <t>ProductSubscribeRequest has data members with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Further for subscription API , in the request farm_id, product_id, subscribed days are required.</t>
+  </si>
+  <si>
+    <t>GetFarmByIdRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: farmId</t>
+  </si>
+  <si>
+    <t>Refactored the smell by removing this GetFarmByIdRequest , as it was not in use anymore.</t>
+  </si>
+  <si>
+    <t>GetProductByIdRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: productId</t>
+  </si>
+  <si>
+    <t>Refactored the smell by removing this GetProductByIdRequest , as it was not in use anymore.</t>
+  </si>
+  <si>
+    <t>EditFarmRequest</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: id; name; Address; Description; lat; lng</t>
+  </si>
+  <si>
+    <t>EditFarmRequest has data members with lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>ProductSearchRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: productName</t>
+  </si>
+  <si>
+    <t>Refactored the smell with converting to @Requestparam of this type.</t>
+  </si>
+  <si>
+    <t>SignUpRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: firstName; lastName; password; email; role</t>
+  </si>
+  <si>
+    <t>SignUpRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: firstName; lastName; password; email; role</t>
+  </si>
+  <si>
+    <t>SignUpRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.. Also during signup, we need the name, email of user.</t>
+  </si>
+  <si>
+    <t>FarmerOwnFarmRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: searchTerm</t>
+  </si>
+  <si>
+    <t>ResetPasswordRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: email</t>
+  </si>
+  <si>
+    <t>ResetPasswordRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>EditProductRequest</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: id; productName; productDescription; price; stock; unit</t>
+  </si>
+  <si>
+    <t>EditProductRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>AddProductRequest</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: productName; productDescription; price; stock; unit; prebook; category_id; farm_id</t>
+  </si>
+  <si>
+    <t>AddProductRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>RefreshTokenRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: token</t>
+  </si>
+  <si>
+    <t>RefreshTokenRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>OrderRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: customer_id; farm_id; product_id; quantity</t>
+  </si>
+  <si>
+    <t>OrderRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>WalletRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: email; amount</t>
+  </si>
+  <si>
+    <t>WalletRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>AddFarmRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: name; Address; Description; lat; lng</t>
+  </si>
+  <si>
+    <t>AddFarmRequest We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: name; Address; Description; lat; lng</t>
+  </si>
+  <si>
+    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. The addFarm request needs the following parameters like description of farm, latitide and longitiude to determine location.</t>
+  </si>
+  <si>
+    <t>com.example.backend.config</t>
+  </si>
+  <si>
+    <t>ApplicationConfig</t>
+  </si>
+  <si>
+    <t>The ApplicationConfig class configures the authentication mechanism of our Spring Boot application using Spring Security</t>
+  </si>
+  <si>
+    <t>MailConfig</t>
+  </si>
+  <si>
+    <t>The MailConfig class is used configure the sending of emails in our application for user register and forgot password.</t>
+  </si>
+  <si>
+    <t>JWTAuthenticationEntryPoint</t>
+  </si>
+  <si>
+    <t>The JWTAuthenticationEntryPoint class implements Spring Security's AuthenticationEntryPoint to intercept and respond with an "Unauthorized" error for requests without valid authentication.</t>
+  </si>
+  <si>
+    <t>ModelMapperConfig</t>
+  </si>
+  <si>
+    <t>The ModelMapperConfig defines a spring configuration  that creates a ModelMapper to map data between DTO and entities</t>
+  </si>
+  <si>
+    <t>WebConfig</t>
+  </si>
+  <si>
+    <t>The WebConfig is used to configure CORS policy to make requests to server</t>
+  </si>
+  <si>
+    <t>AwsConfig</t>
+  </si>
+  <si>
+    <t>The AwsConfig class is a Spring configuration that creates a bean for the Amazon S3 client, using provided AWS credentials and region information. We have used S3 to store the images in our applications</t>
+  </si>
+  <si>
+    <t>SecurityConfiguration</t>
+  </si>
+  <si>
+    <t>The SecurityConfiguration class configures the security for  the application, enabling web security Specifically, it defines which endpoints are publicly accessible and which require authentication.</t>
+  </si>
+  <si>
+    <t>com.example.backend.utils</t>
+  </si>
+  <si>
+    <t>ResponseUtils</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refactored this smell as we have ResponseUtils was removed, as it was not necessary.</t>
+  </si>
+  <si>
+    <t>com.example.backend.controller</t>
+  </si>
+  <si>
+    <t>AdminController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored the smell </t>
+  </si>
+  <si>
+    <t>ProductController</t>
+  </si>
+  <si>
     <t>Refactored the smell</t>
   </si>
   <si>
-    <t>ProductEditResponseDto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: message; product</t>
-  </si>
-  <si>
-    <t>LoginResponse</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: token; refreshToken; firstname; lastname; email; role; wallet_balance</t>
-  </si>
-  <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Also the login response needs to contain the basic user details like name, role , as we have role based UI changes</t>
-  </si>
-  <si>
-    <t>UserDTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: id; firstname; lastname; email; role</t>
+    <t>SubscriptionController</t>
+  </si>
+  <si>
+    <t>The SubscriptionController is used to handle requests related to subscription API's.</t>
+  </si>
+  <si>
+    <t>OrderController</t>
+  </si>
+  <si>
+    <t>The OrderController is used to handle requests related to order API's.</t>
+  </si>
+  <si>
+    <t>WalletController</t>
+  </si>
+  <si>
+    <t>The WalletController is used to handle requests related to wallet API's.</t>
+  </si>
+  <si>
+    <t>CustomerController</t>
+  </si>
+  <si>
+    <t>The CustomerController is used to handle requests related to customer API's.</t>
+  </si>
+  <si>
+    <t>FarmerController</t>
+  </si>
+  <si>
+    <t>The FarmerController is used to handle requests related to farmer API's.</t>
+  </si>
+  <si>
+    <t>AuthController</t>
+  </si>
+  <si>
+    <t>The AuthController is used to handle requests related to user authentication</t>
+  </si>
+  <si>
+    <t>CategoryController</t>
+  </si>
+  <si>
+    <t>The CategoryController is used to handle requests related to category.</t>
+  </si>
+  <si>
+    <t>VerificationController</t>
+  </si>
+  <si>
+    <t>The VerificationController is used to handle requests related to user verification through mail</t>
+  </si>
+  <si>
+    <t>HomeController</t>
+  </si>
+  <si>
+    <t>The HomeController is used to handle requests related to home page API</t>
+  </si>
+  <si>
+    <t>com.example.backend.exception</t>
+  </si>
+  <si>
+    <t>ApiException</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: message; httpStatus; timestamp</t>
   </si>
   <si>
     <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too.</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: id; firstname; lastname; email; role</t>
-  </si>
-  <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. The userDTO also needs to contains the basic user details like name, role etc to handle user details in frontend</t>
-  </si>
-  <si>
-    <t>HomeResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: farms; products</t>
-  </si>
-  <si>
-    <t>JwtAuthenticationResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: token; refreshToken</t>
-  </si>
-  <si>
-    <t>AdminResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: farms; products; orders; users; Sales</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: farms; products; orders; users; Sales</t>
-  </si>
-  <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Further the admin response needs combined data of farmers, products, sales etc. to display in admin dashboard.</t>
-  </si>
-  <si>
-    <t>com.example.backend.dto.request</t>
-  </si>
-  <si>
-    <t>SignInRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: email; password</t>
-  </si>
-  <si>
-    <t>ProductSubscribeRequest</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: name; mon; tue; wed; thu; fri; sat; sun; farm_id; product_id</t>
-  </si>
-  <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Further for subscription API , in the request farm_id, product_id, subscribed days are required.</t>
-  </si>
-  <si>
-    <t>GetFarmByIdRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: farmId</t>
-  </si>
-  <si>
-    <t>GetProductByIdRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: productId</t>
-  </si>
-  <si>
-    <t>EditFarmRequest</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: id; name; Address; Description; lat; lng</t>
-  </si>
-  <si>
-    <t>ProductSearchRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: productName</t>
-  </si>
-  <si>
-    <t>SignUpRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: firstName; lastName; password; email; role</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: firstName; lastName; password; email; role</t>
-  </si>
-  <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. Also during signup, we need the name, email of user.</t>
-  </si>
-  <si>
-    <t>FarmerOwnFarmRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: searchTerm</t>
-  </si>
-  <si>
-    <t>ResetPasswordRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: email</t>
-  </si>
-  <si>
-    <t>EditProductRequest</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: id; productName; productDescription; price; stock; unit</t>
-  </si>
-  <si>
-    <t>AddProductRequest</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: productName; productDescription; price; stock; unit; prebook; category_id; farm_id</t>
-  </si>
-  <si>
-    <t>RefreshTokenRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: token</t>
-  </si>
-  <si>
-    <t>OrderRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: customer_id; farm_id; product_id; quantity</t>
-  </si>
-  <si>
-    <t>WalletRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: email; amount</t>
-  </si>
-  <si>
-    <t>AddFarmRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: name; Address; Description; lat; lng</t>
-  </si>
-  <si>
-    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: name; Address; Description; lat; lng</t>
-  </si>
-  <si>
-    <t>We have used Lombok annotations @Getter and @Setter to define getters and setters methods for this class. Hence the class contains methods implementation  too. The addFarm request needs the following parameters like description of farm, latitide and longitiude to determine location.</t>
-  </si>
-  <si>
-    <t>com.example.backend.config</t>
-  </si>
-  <si>
-    <t>ApplicationConfig</t>
-  </si>
-  <si>
-    <t>The ApplicationConfig class configures the authentication mechanism of our Spring Boot application using Spring Security</t>
-  </si>
-  <si>
-    <t>MailConfig</t>
-  </si>
-  <si>
-    <t>The MailConfig class is used configure the sending of emails in our application for user register and forgot password.</t>
-  </si>
-  <si>
-    <t>JWTAuthenticationEntryPoint</t>
-  </si>
-  <si>
-    <t>The JWTAuthenticationEntryPoint class implements Spring Security's AuthenticationEntryPoint to intercept and respond with an "Unauthorized" error for requests without valid authentication.</t>
-  </si>
-  <si>
-    <t>ModelMapperConfig</t>
-  </si>
-  <si>
-    <t>The ModelMapperConfig defines a spring configuration  that creates a ModelMapper to map data between DTO and entities</t>
-  </si>
-  <si>
-    <t>WebConfig</t>
-  </si>
-  <si>
-    <t>The WebConfig is used to configure CORS policy to make requests to server</t>
-  </si>
-  <si>
-    <t>AwsConfig</t>
-  </si>
-  <si>
-    <t>The AwsConfig class is a Spring configuration that creates a bean for the Amazon S3 client, using provided AWS credentials and region information. We have used S3 to store the images in our applications</t>
-  </si>
-  <si>
-    <t>SecurityConfiguration</t>
-  </si>
-  <si>
-    <t>The SecurityConfiguration class configures the security for  the application, enabling web security Specifically, it defines which endpoints are publicly accessible and which require authentication.</t>
-  </si>
-  <si>
-    <t>com.example.backend.utils</t>
-  </si>
-  <si>
-    <t>ResponseUtils</t>
-  </si>
-  <si>
-    <t>com.example.backend.controller</t>
-  </si>
-  <si>
-    <t>AdminController</t>
-  </si>
-  <si>
-    <t>The AdminController is used to handle requests related to admin and admin dahboard API's.</t>
-  </si>
-  <si>
-    <t>ProductController</t>
-  </si>
-  <si>
-    <t>The ProductController is used to handle requests related to product API's.</t>
-  </si>
-  <si>
-    <t>SubscriptionController</t>
-  </si>
-  <si>
-    <t>The SubscriptionController is used to handle requests related to subscription API's.</t>
-  </si>
-  <si>
-    <t>OrderController</t>
-  </si>
-  <si>
-    <t>The OrderController is used to handle requests related to order API's.</t>
-  </si>
-  <si>
-    <t>WalletController</t>
-  </si>
-  <si>
-    <t>The WalletController is used to handle requests related to wallet API's.</t>
-  </si>
-  <si>
-    <t>CustomerController</t>
-  </si>
-  <si>
-    <t>The CustomerController is used to handle requests related to customer API's.</t>
-  </si>
-  <si>
-    <t>FarmerController</t>
-  </si>
-  <si>
-    <t>The FarmerController is used to handle requests related to farmer API's.</t>
-  </si>
-  <si>
-    <t>AuthController</t>
-  </si>
-  <si>
-    <t>The AuthController is used to handle requests related to user authentication</t>
-  </si>
-  <si>
-    <t>CategoryController</t>
-  </si>
-  <si>
-    <t>The CategoryController is used to handle requests related to category.</t>
-  </si>
-  <si>
-    <t>VerificationController</t>
-  </si>
-  <si>
-    <t>The VerificationController is used to handle requests related to user verification through mail</t>
-  </si>
-  <si>
-    <t>HomeController</t>
-  </si>
-  <si>
-    <t>The HomeController is used to handle requests related to home page API</t>
-  </si>
-  <si>
-    <t>com.example.backend.exception</t>
-  </si>
-  <si>
-    <t>ApiException</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> that indicates that the abstraction might not be required. Following fields are declared in this class: message; httpStatus; timestamp</t>
   </si>
   <si>
     <t>ApplicationExceptionHandler</t>
@@ -597,7 +657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +676,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -629,12 +695,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1071,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1">
@@ -1082,16 +1149,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
@@ -1102,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -1111,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -1125,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -1134,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
@@ -1145,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -1154,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
@@ -1168,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -1177,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1">
@@ -1188,16 +1255,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1">
@@ -1208,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -1217,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1">
@@ -1231,16 +1298,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1">
@@ -1251,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -1260,10 +1327,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1">
@@ -1274,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -1283,10 +1350,10 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1">
@@ -1297,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -1306,10 +1373,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1">
@@ -1320,16 +1387,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1">
@@ -1337,10 +1404,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -1349,10 +1416,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
@@ -1360,19 +1427,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1">
@@ -1380,10 +1447,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -1392,10 +1459,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1">
@@ -1403,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -1415,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1">
@@ -1423,10 +1490,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -1435,10 +1502,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1">
@@ -1446,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
@@ -1458,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1">
@@ -1466,19 +1533,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1">
@@ -1486,10 +1553,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>14</v>
@@ -1498,10 +1565,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1">
@@ -1509,10 +1576,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1521,10 +1588,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1">
@@ -1532,19 +1599,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1">
@@ -1552,10 +1619,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -1564,10 +1631,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1">
@@ -1575,10 +1642,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>14</v>
@@ -1587,10 +1654,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1">
@@ -1598,19 +1665,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1">
@@ -1618,19 +1685,19 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1">
@@ -1638,10 +1705,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -1650,10 +1717,10 @@
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1">
@@ -1661,10 +1728,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>14</v>
@@ -1673,10 +1740,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1">
@@ -1684,10 +1751,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -1696,10 +1763,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1">
@@ -1707,10 +1774,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>14</v>
@@ -1719,10 +1786,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1">
@@ -1730,19 +1797,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1">
@@ -1750,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -1762,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1">
@@ -1770,10 +1837,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -1782,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1">
@@ -1790,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -1802,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1">
@@ -1810,10 +1877,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -1822,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1">
@@ -1830,10 +1897,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -1842,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1">
@@ -1850,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -1862,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1">
@@ -1870,10 +1937,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -1882,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1">
@@ -1890,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>9</v>
@@ -1902,47 +1969,49 @@
         <v>10</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1">
-      <c r="A45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>100</v>
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>102</v>
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1">
@@ -1950,10 +2019,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -1962,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1">
@@ -1970,10 +2039,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -1982,27 +2051,28 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1">
-      <c r="A49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>108</v>
+      <c r="A49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1">
@@ -2010,10 +2080,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
@@ -2022,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1">
@@ -2030,10 +2100,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -2042,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1">
@@ -2050,10 +2120,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -2062,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1">
@@ -2070,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -2082,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1">
@@ -2090,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -2102,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1">
@@ -2110,10 +2180,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -2122,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1">
@@ -2130,10 +2200,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>14</v>
@@ -2142,10 +2212,10 @@
         <v>15</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1">
@@ -2153,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -2165,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1">
@@ -2173,10 +2243,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -2185,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1">
@@ -2193,10 +2263,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -2205,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="4" customFormat="1">
@@ -2213,10 +2283,10 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>9</v>
@@ -2225,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="4" customFormat="1">
@@ -2233,19 +2303,19 @@
         <v>6</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1">
@@ -2253,19 +2323,19 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1">
@@ -2273,19 +2343,19 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1">
@@ -2293,19 +2363,19 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1">
@@ -2313,19 +2383,19 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1">
@@ -2333,10 +2403,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>14</v>
@@ -2345,10 +2415,10 @@
         <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1">
@@ -2356,10 +2426,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>14</v>
@@ -2368,10 +2438,10 @@
         <v>15</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1">
@@ -2379,19 +2449,19 @@
         <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1">
@@ -2399,19 +2469,19 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1">
@@ -2419,10 +2489,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>14</v>
@@ -2431,10 +2501,10 @@
         <v>15</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1">
@@ -2442,10 +2512,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>14</v>
@@ -2454,10 +2524,10 @@
         <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1">
@@ -2465,10 +2535,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>14</v>
@@ -2477,10 +2547,10 @@
         <v>15</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1">
@@ -2488,10 +2558,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>14</v>
@@ -2500,10 +2570,10 @@
         <v>15</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1">
@@ -2511,10 +2581,10 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>14</v>
@@ -2523,10 +2593,10 @@
         <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1">
@@ -2534,19 +2604,19 @@
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1">
@@ -2554,19 +2624,19 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2588,19 +2658,19 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
